--- a/input_data/input_data_temps.xlsx
+++ b/input_data/input_data_temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6364937-3E6C-4161-9F09-9D1ABEDC8762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D83630-ACC0-4F81-B07B-D18BDB51DC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
   <si>
     <t>node</t>
   </si>
@@ -446,6 +446,12 @@
   </si>
   <si>
     <t>scenario_independent_online</t>
+  </si>
+  <si>
+    <t>node_dummy_variable_cost</t>
+  </si>
+  <si>
+    <t>ramp_dummy_variable_cost</t>
   </si>
 </sst>
 </file>
@@ -834,176 +840,176 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>44624.010416666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>44624.020833333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>44624.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>44624.041666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>44624.083333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>44624.125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
     </row>
   </sheetData>
@@ -1019,14 +1025,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
@@ -1057,12 +1063,12 @@
       <selection activeCell="E42" sqref="E42:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>94</v>
       </c>
@@ -1087,9 +1093,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1118,14 +1124,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -1149,7 +1155,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -1161,7 +1167,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -1173,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -1185,7 +1191,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -1197,7 +1203,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -1209,7 +1215,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -1221,7 +1227,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -1233,7 +1239,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -1245,92 +1251,92 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1351,12 +1357,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -1379,7 +1385,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -1391,7 +1397,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -1403,7 +1409,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -1415,7 +1421,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -1427,7 +1433,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -1439,7 +1445,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -1451,7 +1457,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -1463,7 +1469,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -1475,91 +1481,91 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1580,82 +1586,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1674,12 +1680,12 @@
       <selection activeCell="B11" sqref="B11:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -1696,7 +1702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -1705,7 +1711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -1714,7 +1720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -1723,7 +1729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -1732,7 +1738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -1741,7 +1747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -1750,7 +1756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -1759,7 +1765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -1768,91 +1774,91 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1871,17 +1877,17 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1951,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1999,12 +2005,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>90</v>
       </c>
@@ -2015,7 +2021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -2039,13 +2045,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -2080,7 +2086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -2098,7 +2104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -2116,7 +2122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -2134,7 +2140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -2152,7 +2158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -2170,7 +2176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -2188,7 +2194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -2206,7 +2212,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -2224,91 +2230,91 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2328,15 +2334,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -2348,7 +2354,7 @@
       </c>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2381,22 +2387,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="10"/>
     </row>
   </sheetData>
@@ -2413,14 +2419,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -2459,7 +2465,7 @@
         <v>51.300000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -2481,7 +2487,7 @@
         <v>33.300000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -2503,7 +2509,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -2525,7 +2531,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -2547,7 +2553,7 @@
         <v>27.900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -2569,7 +2575,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -2591,7 +2597,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -2613,7 +2619,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -2635,91 +2641,91 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2739,12 +2745,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -2752,7 +2758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2760,7 +2766,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2781,9 +2787,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2799,7 +2805,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2820,162 +2826,162 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2994,12 +3000,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -3022,7 +3028,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -3034,7 +3040,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -3046,7 +3052,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -3058,7 +3064,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -3070,7 +3076,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -3082,7 +3088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -3094,7 +3100,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -3106,7 +3112,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -3118,91 +3124,91 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3222,14 +3228,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3243,7 +3249,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -3257,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3290,18 +3296,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3330,7 +3336,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -3363,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -3396,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -3429,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -3462,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -3495,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -3528,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -3561,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -3594,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -3627,91 +3633,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3731,12 +3737,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3747,7 +3753,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -3759,7 +3765,7 @@
         <v>5.9705000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -3771,7 +3777,7 @@
         <v>6.3089000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -3783,7 +3789,7 @@
         <v>6.0133000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -3795,7 +3801,7 @@
         <v>5.1531000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -3807,7 +3813,7 @@
         <v>6.8680000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -3819,7 +3825,7 @@
         <v>6.1234000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -3831,7 +3837,7 @@
         <v>5.5724999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -3843,7 +3849,7 @@
         <v>4.9116999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -3855,91 +3861,91 @@
         <v>5.7545000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3953,19 +3959,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8722DB-EA8F-4752-8AE5-4F3986218151}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -3973,7 +3979,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -3981,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -3989,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -3997,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -4005,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -4013,16 +4019,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>125</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4040,20 +4062,20 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4103,7 +4125,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4153,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4203,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4253,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -4270,7 +4292,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4287,7 +4309,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4310,26 +4332,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB20090B-02A9-43B7-8D03-9C18D42920EB}">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -4382,7 +4404,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4435,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -4488,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4541,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -4572,9 +4594,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -4585,7 +4607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4596,7 +4618,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4607,7 +4629,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4631,9 +4653,9 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -4690,20 +4712,20 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4735,7 +4757,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -4767,7 +4789,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -4799,7 +4821,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -4831,7 +4853,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -4863,7 +4885,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -4895,7 +4917,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -4927,7 +4949,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
@@ -4973,155 +4995,155 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>

--- a/input_data/input_data_temps.xlsx
+++ b/input_data/input_data_temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D83630-ACC0-4F81-B07B-D18BDB51DC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5842B1D5-B042-412E-A964-DA9C44B2C2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="11" activeTab="17" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
   <si>
     <t>node</t>
   </si>
@@ -329,9 +329,6 @@
   </si>
   <si>
     <t>penalty</t>
-  </si>
-  <si>
-    <t>reserve_product</t>
   </si>
   <si>
     <t>processgroup</t>
@@ -504,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -514,9 +511,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1034,19 +1028,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1070,13 +1064,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1136,10 +1130,10 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1367,10 +1361,10 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1898,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>36</v>
@@ -1933,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>37</v>
@@ -1965,13 +1959,13 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1999,37 +1993,224 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>90</v>
+      <c r="A1" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>52</v>
+      <c r="A2" s="6">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44624</v>
       </c>
       <c r="B2">
         <v>0.2</v>
       </c>
       <c r="C2">
         <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44624.010416666664</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44624.020833333336</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44624.03125</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44624.041666666664</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44624.083333333336</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44624.125</v>
+      </c>
+      <c r="B8">
+        <v>0.2</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44624.291666666664</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44624.458333333336</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2062,10 +2243,10 @@
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2338,19 +2519,19 @@
   <cols>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2388,22 +2569,22 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2823,7 +3004,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3265,10 +3446,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3330,10 +3511,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
         <v>110</v>
-      </c>
-      <c r="I1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3961,7 +4142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8722DB-EA8F-4752-8AE5-4F3986218151}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -3981,7 +4162,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3989,7 +4170,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3997,7 +4178,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4005,7 +4186,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4013,7 +4194,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4021,7 +4202,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -4029,7 +4210,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -4037,7 +4218,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4045,7 +4226,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4098,7 +4279,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -4113,13 +4294,13 @@
         <v>72</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>75</v>
@@ -4398,7 +4579,7 @@
         <v>63</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>66</v>
@@ -4615,7 +4796,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4626,7 +4807,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4637,7 +4818,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4751,10 +4932,10 @@
         <v>20</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">

--- a/input_data/input_data_temps.xlsx
+++ b/input_data/input_data_temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5842B1D5-B042-412E-A964-DA9C44B2C2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8907B381-E4B6-43A7-B2A2-31E3DD5CAFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="11" activeTab="17" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="11" activeTab="20" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="reserve_realisation" sheetId="23" r:id="rId18"/>
     <sheet name="market_prices" sheetId="8" r:id="rId19"/>
     <sheet name="balance_prices" sheetId="20" r:id="rId20"/>
-    <sheet name="risk" sheetId="17" r:id="rId21"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
-    <sheet name="constraints" sheetId="14" r:id="rId25"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId26"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId27"/>
+    <sheet name="reserve_activation_price" sheetId="28" r:id="rId21"/>
+    <sheet name="risk" sheetId="17" r:id="rId22"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId23"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId24"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId25"/>
+    <sheet name="constraints" sheetId="14" r:id="rId26"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="130">
   <si>
     <t>node</t>
   </si>
@@ -834,176 +835,176 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44624.010416666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44624.020833333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44624.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44624.041666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44624.083333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44624.125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
     </row>
   </sheetData>
@@ -1019,14 +1020,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
@@ -1057,12 +1058,12 @@
       <selection activeCell="E42" sqref="E42:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
@@ -1087,9 +1088,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1118,14 +1119,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -1149,7 +1150,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -1161,7 +1162,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -1173,7 +1174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -1185,7 +1186,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -1197,7 +1198,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -1209,7 +1210,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -1221,7 +1222,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -1233,7 +1234,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -1245,92 +1246,92 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1351,12 +1352,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -1379,7 +1380,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -1391,7 +1392,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -1403,7 +1404,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -1415,7 +1416,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -1427,7 +1428,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -1439,7 +1440,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -1451,7 +1452,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -1463,7 +1464,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -1475,91 +1476,91 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1580,82 +1581,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1674,12 +1675,12 @@
       <selection activeCell="B11" sqref="B11:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -1696,7 +1697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -1705,7 +1706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -1714,7 +1715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -1723,7 +1724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -1732,7 +1733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -1741,7 +1742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -1750,7 +1751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -1759,7 +1760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -1768,91 +1769,91 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1871,17 +1872,17 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -1951,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1995,16 +1996,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E21372C5-DB60-4318-868D-D4FA20FECD5D}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -2027,7 +2028,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -2039,7 +2040,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -2051,7 +2052,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -2063,7 +2064,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -2075,7 +2076,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -2087,7 +2088,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -2099,7 +2100,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -2111,7 +2112,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -2123,91 +2124,91 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2226,13 +2227,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -2267,7 +2268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -2285,7 +2286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -2303,7 +2304,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -2321,7 +2322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -2339,7 +2340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -2357,7 +2358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -2375,7 +2376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -2393,7 +2394,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -2411,91 +2412,91 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2515,15 +2516,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -2535,7 +2536,7 @@
       </c>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2568,22 +2569,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
     </row>
   </sheetData>
@@ -2600,14 +2601,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -2646,7 +2647,7 @@
         <v>51.300000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -2668,7 +2669,7 @@
         <v>33.300000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -2690,7 +2691,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -2712,7 +2713,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -2734,7 +2735,7 @@
         <v>27.900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -2756,7 +2757,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -2778,7 +2779,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -2800,7 +2801,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -2822,91 +2823,91 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2919,6 +2920,283 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32999EF-60F2-48CB-917A-DEA08B7B4CE6}">
+  <dimension ref="A1:BA25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44624</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44624.010416666664</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44624.020833333336</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44624.03125</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44624.041666666664</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44624.083333333336</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44624.125</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44624.291666666664</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44624.458333333336</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2926,12 +3204,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -2939,7 +3217,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -2947,7 +3225,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2960,7 +3238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2968,9 +3246,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -2978,7 +3256,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -2986,7 +3264,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -2999,7 +3277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -3007,162 +3285,162 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3173,7 +3451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -3181,12 +3459,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3197,7 +3475,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -3209,7 +3487,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -3221,7 +3499,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -3233,7 +3511,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -3245,7 +3523,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -3257,7 +3535,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -3269,7 +3547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -3281,7 +3559,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -3293,7 +3571,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -3305,91 +3583,91 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3401,7 +3679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -3409,14 +3687,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3430,7 +3708,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -3444,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -3458,7 +3736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -3469,7 +3747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -3477,18 +3755,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3517,7 +3795,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -3550,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -3583,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -3616,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -3649,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -3682,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -3715,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -3748,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -3781,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -3814,91 +4092,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3910,7 +4188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -3918,12 +4196,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3934,7 +4212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -3946,7 +4224,7 @@
         <v>5.9705000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -3958,7 +4236,7 @@
         <v>6.3089000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -3970,7 +4248,7 @@
         <v>6.0133000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -3982,7 +4260,7 @@
         <v>5.1531000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -3994,7 +4272,7 @@
         <v>6.8680000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -4006,7 +4284,7 @@
         <v>6.1234000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -4018,7 +4296,7 @@
         <v>5.5724999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -4030,7 +4308,7 @@
         <v>4.9116999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -4042,91 +4320,91 @@
         <v>5.7545000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4146,13 +4424,13 @@
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -4160,7 +4438,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -4168,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -4176,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -4184,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>122</v>
       </c>
@@ -4192,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -4200,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>128</v>
       </c>
@@ -4208,7 +4486,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>129</v>
       </c>
@@ -4216,7 +4494,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -4224,7 +4502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>125</v>
       </c>
@@ -4243,20 +4521,20 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4306,7 +4584,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4356,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4406,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4456,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -4473,7 +4751,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4490,7 +4768,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -4517,22 +4795,22 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -4585,7 +4863,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4638,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -4691,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4744,7 +5022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -4775,9 +5053,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -4788,7 +5066,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4799,7 +5077,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4810,7 +5088,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4834,9 +5112,9 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -4893,20 +5171,20 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4938,7 +5216,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -4970,7 +5248,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -5002,7 +5280,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -5034,7 +5312,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -5066,7 +5344,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -5098,7 +5376,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -5130,7 +5408,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
@@ -5176,155 +5454,155 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>

--- a/input_data/input_data_temps.xlsx
+++ b/input_data/input_data_temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8907B381-E4B6-43A7-B2A2-31E3DD5CAFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59151B21-5AAF-40A7-A882-2C1EE1A17863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="11" activeTab="20" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="11" activeTab="21" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -34,13 +34,14 @@
     <sheet name="market_prices" sheetId="8" r:id="rId19"/>
     <sheet name="balance_prices" sheetId="20" r:id="rId20"/>
     <sheet name="reserve_activation_price" sheetId="28" r:id="rId21"/>
-    <sheet name="risk" sheetId="17" r:id="rId22"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId23"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId24"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId25"/>
-    <sheet name="constraints" sheetId="14" r:id="rId26"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId28"/>
+    <sheet name="bid_slots" sheetId="29" r:id="rId22"/>
+    <sheet name="risk" sheetId="17" r:id="rId23"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId24"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId25"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId26"/>
+    <sheet name="constraints" sheetId="14" r:id="rId27"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId28"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId29"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="130">
   <si>
     <t>node</t>
   </si>
@@ -2224,7 +2225,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2923,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32999EF-60F2-48CB-917A-DEA08B7B4CE6}">
   <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3197,6 +3198,173 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FC5C19-61CA-438C-ABFB-FA51A2F784B7}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44624.010416666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44624.020833333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44624.03125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44624.041666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44624.083333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44624.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44624.291666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44624.458333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3238,7 +3406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3277,7 +3445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -3451,7 +3619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -3679,7 +3847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -3747,7 +3915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -4188,7 +4356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:C25"/>
   <sheetViews>

--- a/input_data/input_data_temps.xlsx
+++ b/input_data/input_data_temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59151B21-5AAF-40A7-A882-2C1EE1A17863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779ACE85-E306-49D5-B7E7-64D5BAE5DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="11" activeTab="21" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="1" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
   <si>
     <t>node</t>
   </si>
@@ -346,9 +346,6 @@
   </si>
   <si>
     <t>node2</t>
-  </si>
-  <si>
-    <t>diff_coeff</t>
   </si>
   <si>
     <t>state_min</t>
@@ -1036,13 +1033,13 @@
         <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1053,26 +1050,166 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44624.010416666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44624.020833333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44624.03125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>44624.041666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>44624.083333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>44624.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>44624.291666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>44624.458333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1132,10 +1269,10 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1363,10 +1500,10 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1967,7 +2104,7 @@
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2011,10 +2148,10 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2245,10 +2382,10 @@
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2527,13 +2664,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2938,10 +3075,10 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
         <v>114</v>
-      </c>
-      <c r="C1" t="s">
-        <v>115</v>
       </c>
       <c r="D1"/>
       <c r="E1"/>
@@ -3201,7 +3338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FC5C19-61CA-438C-ABFB-FA51A2F784B7}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -3892,10 +4029,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3957,10 +4094,10 @@
         <v>62</v>
       </c>
       <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
         <v>109</v>
-      </c>
-      <c r="I1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4608,7 +4745,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4616,7 +4753,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4624,7 +4761,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4632,7 +4769,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4640,7 +4777,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4648,7 +4785,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -4656,7 +4793,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -4664,7 +4801,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4672,7 +4809,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4725,7 +4862,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -4740,13 +4877,13 @@
         <v>72</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>75</v>
@@ -5025,7 +5162,7 @@
         <v>63</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>66</v>
@@ -5253,7 +5390,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5378,10 +5515,10 @@
         <v>20</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5619,7 +5756,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/input_data/input_data_temps.xlsx
+++ b/input_data/input_data_temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779ACE85-E306-49D5-B7E7-64D5BAE5DA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DF85FC-2F2F-4D34-9B7A-5E2685F7A071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="1" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="1" activeTab="5" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="130">
   <si>
     <t>node</t>
   </si>
@@ -147,9 +147,6 @@
     <t>sink</t>
   </si>
   <si>
-    <t>VOM_cost</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>reserve</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
@@ -354,9 +348,6 @@
     <t>is_temp</t>
   </si>
   <si>
-    <t>T_E_conversion</t>
-  </si>
-  <si>
     <t>delay_t</t>
   </si>
   <si>
@@ -448,6 +439,18 @@
   </si>
   <si>
     <t>ramp_dummy_variable_cost</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>t_e_conversion</t>
+  </si>
+  <si>
+    <t>market_type</t>
+  </si>
+  <si>
+    <t>group_type</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1027,19 +1030,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA355BEF-1F4B-494A-B089-4FCDFFFA57F7}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1063,7 +1066,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1223,22 +1226,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1266,13 +1269,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1497,13 +1500,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1727,7 +1730,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1820,10 +1823,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2007,7 +2010,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2022,37 +2025,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2060,19 +2063,19 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -2092,22 +2095,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2145,13 +2148,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2373,19 +2376,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2664,13 +2667,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D1"/>
     </row>
@@ -2748,19 +2751,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3072,13 +3075,13 @@
   <sheetData>
     <row r="1" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D1"/>
       <c r="E1"/>
@@ -3349,7 +3352,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -3516,15 +3519,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>0.2</v>
@@ -3532,7 +3535,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>0.2</v>
@@ -3555,15 +3558,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -3571,7 +3574,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -3597,7 +3600,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3771,13 +3774,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4001,24 +4004,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4029,10 +4032,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
         <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -4073,31 +4076,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4508,13 +4511,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4737,15 +4740,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4753,7 +4756,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4761,7 +4764,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4769,7 +4772,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4777,7 +4780,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4785,7 +4788,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <v>10000</v>
@@ -4793,7 +4796,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -4801,7 +4804,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4809,7 +4812,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4823,7 +4826,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4850,7 +4853,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -4862,7 +4865,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>4</v>
@@ -4871,22 +4874,22 @@
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -5123,13 +5126,13 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
@@ -5144,28 +5147,28 @@
         <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -5354,21 +5357,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5379,7 +5382,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5390,7 +5393,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5401,7 +5404,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5473,7 +5476,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5500,13 +5503,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>21</v>
@@ -5515,10 +5518,10 @@
         <v>20</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5715,7 +5718,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>27</v>
@@ -5766,7 +5769,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">

--- a/input_data/input_data_temps.xlsx
+++ b/input_data/input_data_temps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DF85FC-2F2F-4D34-9B7A-5E2685F7A071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F6594-5956-4796-8BBF-8123539055DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="1" activeTab="5" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="4" activeTab="7" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -836,176 +836,176 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>44624.010416666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>44624.020833333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>44624.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>44624.041666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>44624.083333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>44624.125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
     </row>
   </sheetData>
@@ -1021,14 +1021,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
@@ -1059,157 +1059,157 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1229,9 +1229,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1260,14 +1260,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -1303,7 +1303,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -1327,7 +1327,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -1339,7 +1339,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -1351,7 +1351,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -1363,7 +1363,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -1375,7 +1375,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -1387,92 +1387,92 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1490,15 +1490,15 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -1521,7 +1521,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -1533,7 +1533,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -1545,7 +1545,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -1557,7 +1557,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -1569,7 +1569,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -1581,7 +1581,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -1593,7 +1593,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -1605,7 +1605,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -1617,91 +1617,91 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1722,82 +1722,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1816,12 +1816,12 @@
       <selection activeCell="B11" sqref="B11:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -1838,7 +1838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -1847,7 +1847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -1856,7 +1856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -1865,7 +1865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -1874,7 +1874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -1883,7 +1883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -1892,7 +1892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -1901,7 +1901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -1910,91 +1910,91 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2013,17 +2013,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2141,12 +2141,12 @@
       <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -2169,7 +2169,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -2181,7 +2181,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -2193,7 +2193,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -2205,7 +2205,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -2217,7 +2217,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -2229,7 +2229,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -2241,7 +2241,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -2253,7 +2253,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -2265,91 +2265,91 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2368,13 +2368,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -2409,7 +2409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -2427,7 +2427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -2445,7 +2445,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -2463,7 +2463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -2481,7 +2481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -2499,7 +2499,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -2517,7 +2517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -2535,7 +2535,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -2553,91 +2553,91 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2657,15 +2657,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2710,22 +2710,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C10" s="9"/>
     </row>
   </sheetData>
@@ -2742,14 +2742,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -2788,7 +2788,7 @@
         <v>51.300000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -2810,7 +2810,7 @@
         <v>33.300000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -2832,7 +2832,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -2854,7 +2854,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -2876,7 +2876,7 @@
         <v>27.900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -2898,7 +2898,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -2920,7 +2920,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -2942,7 +2942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -2964,91 +2964,91 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3068,12 +3068,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="AZ1"/>
       <c r="BA1"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -3242,91 +3242,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3345,155 +3345,155 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3512,12 +3512,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -3554,9 +3554,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3593,162 +3593,162 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3767,12 +3767,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -3795,7 +3795,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -3807,7 +3807,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -3819,7 +3819,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -3831,7 +3831,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -3843,7 +3843,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -3855,7 +3855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -3867,7 +3867,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -3879,7 +3879,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -3891,91 +3891,91 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3995,14 +3995,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -4063,18 +4063,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -4136,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -4169,7 +4169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -4202,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -4235,7 +4235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -4268,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -4400,91 +4400,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4504,12 +4504,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -4532,7 +4532,7 @@
         <v>5.9705000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -4544,7 +4544,7 @@
         <v>6.3089000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -4556,7 +4556,7 @@
         <v>6.0133000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -4568,7 +4568,7 @@
         <v>5.1531000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -4580,7 +4580,7 @@
         <v>6.8680000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -4592,7 +4592,7 @@
         <v>6.1234000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -4604,7 +4604,7 @@
         <v>5.5724999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -4616,7 +4616,7 @@
         <v>4.9116999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -4628,91 +4628,91 @@
         <v>5.7545000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4732,13 +4732,13 @@
       <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -4829,20 +4829,20 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5059,7 +5059,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5076,7 +5076,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5103,22 +5103,22 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5357,13 +5357,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5420,9 +5420,9 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5473,26 +5473,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5523,8 +5523,9 @@
       <c r="J1" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -5556,7 +5557,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -5588,7 +5589,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -5652,7 +5653,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -5762,155 +5763,155 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>

--- a/input_data/input_data_temps.xlsx
+++ b/input_data/input_data_temps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F6594-5956-4796-8BBF-8123539055DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9127071-4910-4078-B46C-52B268610842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="4" activeTab="7" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="2" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="131">
   <si>
     <t>node</t>
   </si>
@@ -423,9 +423,6 @@
     <t>use_ramp_dummy_variables</t>
   </si>
   <si>
-    <t>common_timesteps</t>
-  </si>
-  <si>
     <t>common_scenario_name</t>
   </si>
   <si>
@@ -451,6 +448,12 @@
   </si>
   <si>
     <t>group_type</t>
+  </si>
+  <si>
+    <t>common_start_timesteps</t>
+  </si>
+  <si>
+    <t>common_end_timesteps</t>
   </si>
 </sst>
 </file>
@@ -836,176 +839,176 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44624.010416666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>44624.020833333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>44624.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>44624.041666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>44624.083333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>44624.125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
     </row>
   </sheetData>
@@ -1021,14 +1024,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>91</v>
       </c>
@@ -1059,157 +1062,157 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1229,9 +1232,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1260,14 +1263,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -1291,7 +1294,7 @@
       </c>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -1303,7 +1306,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -1315,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -1327,7 +1330,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -1339,7 +1342,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -1351,7 +1354,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -1363,7 +1366,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -1375,7 +1378,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -1387,92 +1390,92 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1493,12 +1496,12 @@
       <selection activeCell="A2" sqref="A2:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -1521,7 +1524,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -1533,7 +1536,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -1545,7 +1548,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -1557,7 +1560,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -1569,7 +1572,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -1581,7 +1584,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -1593,7 +1596,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -1605,7 +1608,7 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -1617,91 +1620,91 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1722,82 +1725,82 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1816,12 +1819,12 @@
       <selection activeCell="B11" sqref="B11:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -1838,7 +1841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -1847,7 +1850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -1856,7 +1859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -1865,7 +1868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -1874,7 +1877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -1883,7 +1886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -1892,7 +1895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -1901,7 +1904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -1910,91 +1913,91 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2013,22 +2016,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2058,7 +2061,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -2093,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -2141,12 +2144,12 @@
       <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -2169,7 +2172,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -2181,7 +2184,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -2193,7 +2196,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -2205,7 +2208,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -2217,7 +2220,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -2229,7 +2232,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -2241,7 +2244,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -2253,7 +2256,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -2265,91 +2268,91 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2368,13 +2371,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2391,7 +2394,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -2409,7 +2412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -2427,7 +2430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -2445,7 +2448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -2463,7 +2466,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -2481,7 +2484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -2499,7 +2502,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -2517,7 +2520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -2535,7 +2538,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -2553,91 +2556,91 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2657,15 +2660,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -2677,7 +2680,7 @@
       </c>
       <c r="D1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2710,22 +2713,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
     </row>
   </sheetData>
@@ -2742,14 +2745,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -2766,7 +2769,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -2788,7 +2791,7 @@
         <v>51.300000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -2810,7 +2813,7 @@
         <v>33.300000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -2832,7 +2835,7 @@
         <v>61.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -2854,7 +2857,7 @@
         <v>45.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -2876,7 +2879,7 @@
         <v>27.900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -2898,7 +2901,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -2920,7 +2923,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -2942,7 +2945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -2964,91 +2967,91 @@
         <v>47.7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3068,12 +3071,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -3134,7 +3137,7 @@
       <c r="AZ1"/>
       <c r="BA1"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -3146,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -3158,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -3170,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -3182,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -3194,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -3206,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -3218,7 +3221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -3230,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -3242,91 +3245,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3345,155 +3348,155 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3512,12 +3515,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -3533,7 +3536,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -3554,9 +3557,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -3564,7 +3567,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -3572,7 +3575,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3593,162 +3596,162 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3767,12 +3770,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -3795,7 +3798,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -3807,7 +3810,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -3819,7 +3822,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -3831,7 +3834,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -3843,7 +3846,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -3855,7 +3858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -3867,7 +3870,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -3879,7 +3882,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -3891,91 +3894,91 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3995,14 +3998,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -4030,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -4063,18 +4066,18 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -4103,7 +4106,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -4136,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -4169,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -4202,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -4235,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -4268,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -4301,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -4334,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -4367,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -4400,91 +4403,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4504,12 +4507,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -4520,7 +4523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
@@ -4532,7 +4535,7 @@
         <v>5.9705000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
@@ -4544,7 +4547,7 @@
         <v>6.3089000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
@@ -4556,7 +4559,7 @@
         <v>6.0133000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
@@ -4568,7 +4571,7 @@
         <v>5.1531000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
@@ -4580,7 +4583,7 @@
         <v>6.8680000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
@@ -4592,7 +4595,7 @@
         <v>6.1234000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
@@ -4604,7 +4607,7 @@
         <v>5.5724999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
@@ -4616,7 +4619,7 @@
         <v>4.9116999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
@@ -4628,91 +4631,91 @@
         <v>5.7545000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4726,19 +4729,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8722DB-EA8F-4752-8AE5-4F3986218151}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" activeCellId="1" sqref="B9:B10 P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -4746,7 +4749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -4762,7 +4765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -4786,33 +4789,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7">
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>120</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4829,20 +4840,20 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4880,19 +4891,19 @@
         <v>70</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>94</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4942,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4992,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5042,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5059,7 +5070,7 @@
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5076,7 +5087,7 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5103,22 +5114,22 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5165,13 +5176,13 @@
         <v>61</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -5224,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -5277,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -5330,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -5361,11 +5372,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>80</v>
@@ -5374,7 +5385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -5385,7 +5396,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5396,7 +5407,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5420,9 +5431,9 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5475,24 +5486,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5509,7 +5520,7 @@
         <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>21</v>
@@ -5525,7 +5536,7 @@
       </c>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -5557,7 +5568,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>22</v>
       </c>
@@ -5589,7 +5600,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
@@ -5621,7 +5632,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -5653,7 +5664,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -5685,7 +5696,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -5717,7 +5728,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
@@ -5763,155 +5774,155 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44624</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44624.010416666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44624.020833333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44624.03125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>44624.041666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>44624.083333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>44624.125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>44624.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>44624.458333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
